--- a/doc/03_内部設計/03_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414C3200-9012-490E-88D7-927B94816073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB5CD9F-90BE-43EA-A002-AD5DD0A97417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="148">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -175,13 +175,6 @@
     <t>WelcomeServlet</t>
   </si>
   <si>
-    <t>LoginServlet</t>
-  </si>
-  <si>
-    <t>HouseSelectServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IndexServlet</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -372,44 +365,12 @@
   </si>
   <si>
     <t>JavaScript</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家登録、家参加処理用。</t>
-    <rPh sb="0" eb="1">
-      <t>イエ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イエ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>単にjspを表示する。</t>
     <rPh sb="0" eb="1">
       <t>タン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録、ログイン処理</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1091,6 +1052,68 @@
   </si>
   <si>
     <t>トップページJS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SignUpServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録処理</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HouseRegistServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HouseJoinServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家登録処理用。</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家参加処理用</t>
+    <rPh sb="0" eb="3">
+      <t>イエサンカ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショリヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1501,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1571,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1595,20 +1618,20 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C67" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C69" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1619,24 +1642,20 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1648,23 +1667,23 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1675,24 +1694,21 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1703,21 +1719,24 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1728,21 +1747,24 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1758,16 +1780,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1783,16 +1805,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1808,16 +1830,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1833,16 +1855,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1858,16 +1880,16 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1883,16 +1905,16 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1908,16 +1930,16 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1933,16 +1955,16 @@
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1958,16 +1980,16 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="F18" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1983,16 +2005,16 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2008,16 +2030,16 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>92</v>
+        <v>31</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2033,16 +2055,16 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>94</v>
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2058,16 +2080,16 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2083,16 +2105,16 @@
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2108,16 +2130,16 @@
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2133,16 +2155,16 @@
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2158,16 +2180,16 @@
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2183,16 +2205,16 @@
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2208,16 +2230,16 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2233,16 +2255,16 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2258,16 +2280,16 @@
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2283,16 +2305,16 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2308,16 +2330,16 @@
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>113</v>
+        <v>37</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2333,16 +2355,16 @@
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2358,16 +2380,16 @@
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2383,16 +2405,16 @@
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2408,16 +2430,16 @@
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2433,16 +2455,16 @@
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2458,16 +2480,16 @@
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2483,16 +2505,16 @@
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2508,16 +2530,16 @@
         <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2533,16 +2555,16 @@
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2558,16 +2580,16 @@
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2583,16 +2605,16 @@
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2608,16 +2630,16 @@
         <v>42</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2633,16 +2655,16 @@
         <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2658,16 +2680,16 @@
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2683,16 +2705,16 @@
         <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2708,16 +2730,16 @@
         <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2733,16 +2755,16 @@
         <v>47</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2758,16 +2780,16 @@
         <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2783,16 +2805,16 @@
         <v>49</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2808,16 +2830,16 @@
         <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2833,16 +2855,16 @@
         <v>51</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2858,16 +2880,16 @@
         <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2883,16 +2905,16 @@
         <v>53</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2908,16 +2930,16 @@
         <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -2933,16 +2955,16 @@
         <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2958,16 +2980,16 @@
         <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -2983,16 +3005,16 @@
         <v>57</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3008,16 +3030,16 @@
         <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3033,16 +3055,16 @@
         <v>59</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3057,10 +3079,18 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3074,10 +3104,18 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3156,7 +3194,7 @@
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C68" s="1">
-        <f t="shared" ref="C68:C131" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="D68" s="1"/>
@@ -3173,7 +3211,7 @@
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="D69" s="1"/>
@@ -3190,7 +3228,7 @@
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C70:C133" si="1">ROW()-2</f>
         <v>68</v>
       </c>
       <c r="D70" s="1"/>
@@ -3278,9 +3316,7 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -3297,9 +3333,7 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3317,7 +3351,7 @@
         <v>75</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3336,7 +3370,7 @@
         <v>76</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3355,7 +3389,7 @@
         <v>77</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3374,7 +3408,7 @@
         <v>78</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -3393,7 +3427,7 @@
         <v>79</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -3412,7 +3446,7 @@
         <v>80</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -3431,7 +3465,7 @@
         <v>81</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -3450,7 +3484,7 @@
         <v>82</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -3469,7 +3503,7 @@
         <v>83</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -3488,7 +3522,7 @@
         <v>84</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -3507,7 +3541,7 @@
         <v>85</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -3526,7 +3560,7 @@
         <v>86</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -3545,7 +3579,7 @@
         <v>87</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3564,7 +3598,7 @@
         <v>88</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -3583,7 +3617,7 @@
         <v>89</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -3602,7 +3636,7 @@
         <v>90</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -3621,7 +3655,7 @@
         <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -3640,7 +3674,7 @@
         <v>92</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3659,7 +3693,7 @@
         <v>93</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3678,7 +3712,7 @@
         <v>94</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3697,7 +3731,7 @@
         <v>95</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3716,7 +3750,7 @@
         <v>96</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3735,7 +3769,7 @@
         <v>97</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3754,7 +3788,7 @@
         <v>98</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3773,7 +3807,7 @@
         <v>99</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3792,7 +3826,7 @@
         <v>100</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -3811,7 +3845,7 @@
         <v>101</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -3830,7 +3864,7 @@
         <v>102</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -3849,7 +3883,7 @@
         <v>103</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -3868,7 +3902,7 @@
         <v>104</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -3887,7 +3921,7 @@
         <v>105</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -3906,7 +3940,7 @@
         <v>106</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -3925,7 +3959,7 @@
         <v>107</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -3944,7 +3978,7 @@
         <v>108</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -3963,7 +3997,7 @@
         <v>109</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3982,7 +4016,7 @@
         <v>110</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -4001,7 +4035,7 @@
         <v>111</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -4020,7 +4054,7 @@
         <v>112</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -4039,7 +4073,7 @@
         <v>113</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -4058,7 +4092,7 @@
         <v>114</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -4077,7 +4111,7 @@
         <v>115</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -4096,7 +4130,7 @@
         <v>116</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -4115,7 +4149,7 @@
         <v>117</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -4134,7 +4168,7 @@
         <v>118</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -4153,7 +4187,7 @@
         <v>119</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -4172,7 +4206,7 @@
         <v>120</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -4191,7 +4225,7 @@
         <v>121</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -4210,7 +4244,7 @@
         <v>122</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -4229,7 +4263,7 @@
         <v>123</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -4248,7 +4282,7 @@
         <v>124</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -4267,7 +4301,7 @@
         <v>125</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -4286,7 +4320,7 @@
         <v>126</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -4305,7 +4339,7 @@
         <v>127</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -4324,7 +4358,7 @@
         <v>128</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -4343,7 +4377,7 @@
         <v>129</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -4358,11 +4392,11 @@
     </row>
     <row r="132" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C132" s="1">
-        <f t="shared" ref="C132:C170" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -4377,11 +4411,11 @@
     </row>
     <row r="133" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -4396,11 +4430,11 @@
     </row>
     <row r="134" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C134" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C134:C172" si="2">ROW()-2</f>
         <v>132</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -4419,7 +4453,7 @@
         <v>133</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -4438,7 +4472,7 @@
         <v>134</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -4457,7 +4491,7 @@
         <v>135</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -4476,7 +4510,7 @@
         <v>136</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -4495,7 +4529,7 @@
         <v>137</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -4514,7 +4548,7 @@
         <v>138</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -4533,7 +4567,7 @@
         <v>139</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -4552,7 +4586,7 @@
         <v>140</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -4571,7 +4605,7 @@
         <v>141</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -4590,7 +4624,7 @@
         <v>142</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -4609,7 +4643,7 @@
         <v>143</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -4628,7 +4662,7 @@
         <v>144</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -4647,7 +4681,7 @@
         <v>145</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -4666,7 +4700,7 @@
         <v>146</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -4685,7 +4719,7 @@
         <v>147</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -4704,7 +4738,7 @@
         <v>148</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -4723,7 +4757,7 @@
         <v>149</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -4742,7 +4776,7 @@
         <v>150</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -4761,7 +4795,7 @@
         <v>151</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -4780,7 +4814,7 @@
         <v>152</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -4799,7 +4833,7 @@
         <v>153</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -4818,7 +4852,7 @@
         <v>154</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -4837,7 +4871,7 @@
         <v>155</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -4856,7 +4890,7 @@
         <v>156</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -4875,7 +4909,7 @@
         <v>157</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -4894,7 +4928,7 @@
         <v>158</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -4913,7 +4947,7 @@
         <v>159</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -4932,7 +4966,7 @@
         <v>160</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -4951,7 +4985,7 @@
         <v>161</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -4970,7 +5004,7 @@
         <v>162</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -4989,7 +5023,7 @@
         <v>163</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -5008,7 +5042,7 @@
         <v>164</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -5027,7 +5061,7 @@
         <v>165</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -5046,7 +5080,7 @@
         <v>166</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -5065,7 +5099,7 @@
         <v>167</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -5084,7 +5118,7 @@
         <v>168</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -5097,12 +5131,50 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
+    <row r="171" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C171" s="1">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C172" s="1">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N25" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N27" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M170" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
-      <formula1>$A$2:$A$7</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M172" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+      <formula1>$A$2:$A$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5110,12 +5182,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -5286,6 +5352,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5296,23 +5368,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5331,6 +5386,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
